--- a/climate_change/data_sets/PreDeltaX_WaterLevel_Atchafalaya_WL10.xlsx
+++ b/climate_change/data_sets/PreDeltaX_WaterLevel_Atchafalaya_WL10.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20393"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bengland1\Documents\mat150\climate-change-examples\PreDeltaX_Water_Level_Data_1801\PreDeltaX_Water_Level_Data_1801\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D274B1AF-6AF3-405A-8F51-34834DE9AD22}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE67430E-07F6-4B04-9EED-836A4A4FD1EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PreDeltaX_WaterLevel_Atchafalay" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">PreDeltaX_WaterLevel_Atchafalay!$H$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">PreDeltaX_WaterLevel_Atchafalay!$H$2:$H$965</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">PreDeltaX_WaterLevel_Atchafalay!$H$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">PreDeltaX_WaterLevel_Atchafalay!$H$2:$H$965</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -67,7 +65,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -606,44 +604,6078 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
-<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
-  <cx:chartData>
-    <cx:data id="0">
-      <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
-      </cx:numDim>
-    </cx:data>
-  </cx:chartData>
-  <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0"/>
-    <cx:plotArea>
-      <cx:plotAreaRegion>
-        <cx:series layoutId="clusteredColumn" uniqueId="{E1FC6A8B-EA01-4EE7-B04A-80ED77834CD6}">
-          <cx:tx>
-            <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
-              <cx:v>absolute_water_level_NAVD88</cx:v>
-            </cx:txData>
-          </cx:tx>
-          <cx:dataId val="0"/>
-          <cx:layoutPr>
-            <cx:binning intervalClosed="r"/>
-          </cx:layoutPr>
-        </cx:series>
-      </cx:plotAreaRegion>
-      <cx:axis id="0">
-        <cx:catScaling gapWidth="0"/>
-        <cx:tickLabels/>
-      </cx:axis>
-      <cx:axis id="1">
-        <cx:valScaling/>
-        <cx:majorGridlines/>
-        <cx:tickLabels/>
-      </cx:axis>
-    </cx:plotArea>
-  </cx:chart>
-</cx:chartSpace>
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.2886482939632541E-2"/>
+          <c:y val="0.14346958344064498"/>
+          <c:w val="0.89655796150481193"/>
+          <c:h val="0.49321590249521136"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>PreDeltaX_WaterLevel_Atchafalay!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>absolute_water_level_NAVD88</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>PreDeltaX_WaterLevel_Atchafalay!$G$2:$G$965</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy\ h:mm</c:formatCode>
+                <c:ptCount val="964"/>
+                <c:pt idx="0">
+                  <c:v>42659.804131944446</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42659.807604166665</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42659.811076388891</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42659.81454861111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42659.818020833336</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42659.821493055555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42659.824965277781</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42659.8284375</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42659.831909722219</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42659.835381944446</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42659.838854166665</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42659.842326388891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42659.84579861111</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42659.849270833336</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42659.852743055555</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42659.856215277781</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42659.8596875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42659.863159722219</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42659.866631944446</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42659.870104166665</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42659.873576388891</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42659.87704861111</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42659.880520833336</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42659.883993055555</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42659.887465277781</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42659.8909375</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42659.894409722219</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42659.897881944446</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42659.901354166665</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42659.904826388891</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42659.90829861111</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42659.911770833336</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42659.915243055555</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42659.918715277781</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42659.9221875</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42659.925659722219</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42659.929131944446</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42659.932604166665</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42659.936076388891</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42659.93954861111</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42659.943020833336</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42659.946493055555</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42659.949965277781</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42659.9534375</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42659.956909722219</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42659.960381944446</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42659.963854166665</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42659.967326388891</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42659.97079861111</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42659.974270833336</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42659.977743055555</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42659.981215277781</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42659.9846875</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42659.988159722219</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42659.991631944446</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42659.995104166665</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42659.998576388891</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42660.00204861111</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42660.005520833336</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42660.008993055555</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42660.012465277781</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42660.0159375</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42660.019409722219</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42660.022881944446</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42660.026354166665</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42660.029826388891</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42660.03329861111</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42660.036770833336</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42660.040243055555</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42660.043715277781</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42660.0471875</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42660.050659722219</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42660.054131944446</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42660.057604166665</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42660.061076388891</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42660.06454861111</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42660.068020833336</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42660.071493055555</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42660.074965277781</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42660.0784375</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42660.081909722219</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42660.085381944446</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42660.088854166665</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42660.092326388891</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42660.09579861111</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42660.099270833336</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42660.102743055555</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42660.106215277781</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42660.1096875</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42660.113159722219</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42660.116631944446</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42660.120104166665</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42660.123576388891</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42660.12704861111</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42660.130520833336</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42660.133993055555</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42660.137465277781</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42660.1409375</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42660.144409722219</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42660.147881944446</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42660.151354166665</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42660.154826388891</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42660.15829861111</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42660.161770833336</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42660.165243055555</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42660.168715277781</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42660.1721875</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42660.175659722219</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42660.179131944446</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42660.182604166665</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42660.186076388891</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42660.18954861111</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42660.193020833336</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42660.196493055555</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42660.199965277781</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42660.2034375</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42660.206909722219</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42660.210381944446</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>42660.213854166665</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>42660.217326388891</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>42660.22079861111</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>42660.224270833336</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>42660.227743055555</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>42660.231215277781</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>42660.2346875</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>42660.238159722219</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>42660.241631944446</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>42660.245104166665</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>42660.248576388891</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>42660.25204861111</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>42660.255520833336</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>42660.258993055555</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>42660.262465277781</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>42660.2659375</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>42660.269409722219</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>42660.272881944446</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>42660.276354166665</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>42660.279826388891</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>42660.28329861111</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>42660.286770833336</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>42660.290243055555</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>42660.293715277781</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>42660.2971875</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>42660.300659722219</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>42660.304131944446</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>42660.307604166665</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>42660.311076388891</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>42660.31454861111</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>42660.318020833336</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>42660.321493055555</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>42660.324965277781</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>42660.3284375</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>42660.331909722219</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>42660.335381944446</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>42660.338854166665</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>42660.342326388891</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>42660.34579861111</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>42660.349270833336</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>42660.352743055555</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>42660.356215277781</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>42660.3596875</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>42660.363159722219</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>42660.366631944446</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>42660.370104166665</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>42660.373576388891</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>42660.37704861111</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>42660.380520833336</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>42660.383993055555</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>42660.387465277781</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>42660.3909375</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>42660.394409722219</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>42660.397881944446</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>42660.401354166665</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>42660.404826388891</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>42660.40829861111</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>42660.411770833336</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>42660.415243055555</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>42660.418715277781</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>42660.4221875</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>42660.425659722219</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>42660.429131944446</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>42660.432604166665</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>42660.436076388891</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>42660.43954861111</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>42660.443020833336</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>42660.446493055555</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>42660.449965277781</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>42660.4534375</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>42660.456909722219</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>42660.460381944446</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>42660.463854166665</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>42660.467326388891</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>42660.47079861111</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>42660.474270833336</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>42660.477743055555</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>42660.481215277781</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>42660.4846875</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>42660.488159722219</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>42660.491631944446</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>42660.495104166665</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>42660.498576388891</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>42660.50204861111</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>42660.505520833336</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>42660.508993055555</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>42660.512465277781</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>42660.5159375</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>42660.519409722219</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>42660.522881944446</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>42660.526354166665</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>42660.529826388891</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>42660.53329861111</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>42660.536770833336</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>42660.540243055555</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>42660.543715277781</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>42660.5471875</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>42660.550659722219</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>42660.554131944446</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>42660.557604166665</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>42660.561076388891</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>42660.56454861111</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>42660.568020833336</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>42660.571493055555</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>42660.574965277781</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>42660.5784375</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>42660.581909722219</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>42660.585381944446</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>42660.588854166665</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>42660.592326388891</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>42660.59579861111</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>42660.599270833336</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>42660.602743055555</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>42660.606215277781</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>42660.6096875</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>42660.613159722219</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>42660.616631944446</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>42660.620104166665</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>42660.623576388891</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>42660.62704861111</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>42660.630520833336</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>42660.633993055555</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>42660.637465277781</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>42660.6409375</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>42660.644409722219</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>42660.647881944446</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>42660.651354166665</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>42660.654826388891</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>42660.65829861111</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>42660.661770833336</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>42660.665243055555</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>42660.668715277781</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>42660.6721875</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>42660.675659722219</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>42660.679131944446</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>42660.682604166665</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>42660.686076388891</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>42660.68954861111</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>42660.693020833336</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>42660.696493055555</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>42660.699965277781</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>42660.7034375</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>42660.706909722219</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>42660.710381944446</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>42660.713854166665</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>42660.717326388891</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>42660.72079861111</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>42660.724270833336</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>42660.727743055555</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>42660.731215277781</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>42660.7346875</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>42660.738159722219</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>42660.741631944446</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>42660.745104166665</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>42660.748576388891</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>42660.75204861111</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>42660.755520833336</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>42660.758993055555</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>42660.762465277781</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>42660.7659375</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>42660.769409722219</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>42660.772881944446</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>42660.776354166665</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>42660.779826388891</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>42660.78329861111</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>42660.786770833336</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>42660.790243055555</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>42660.793715277781</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>42660.7971875</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>42660.800659722219</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>42660.804131944446</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>42660.807604166665</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>42660.811076388891</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>42660.81454861111</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>42660.818020833336</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>42660.821493055555</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>42660.824965277781</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>42660.8284375</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>42660.831909722219</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>42660.835381944446</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>42660.838854166665</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>42660.842326388891</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>42660.84579861111</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>42660.849270833336</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>42660.852743055555</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>42660.856215277781</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>42660.8596875</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>42660.863159722219</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>42660.866631944446</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>42660.870104166665</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>42660.873576388891</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>42660.87704861111</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>42660.880520833336</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>42660.883993055555</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>42660.887465277781</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>42660.8909375</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>42660.894409722219</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>42660.897881944446</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>42660.901354166665</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>42660.904826388891</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>42660.90829861111</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>42660.911770833336</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>42660.915243055555</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>42660.918715277781</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>42660.9221875</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>42660.925659722219</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>42660.929131944446</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>42660.932604166665</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>42660.936076388891</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>42660.93954861111</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>42660.943020833336</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>42660.946493055555</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>42660.949965277781</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>42660.9534375</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>42660.956909722219</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>42660.960381944446</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>42660.963854166665</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>42660.967326388891</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>42660.97079861111</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>42660.974270833336</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>42660.977743055555</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>42660.981215277781</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>42660.9846875</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>42660.988159722219</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>42660.991631944446</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>42660.995104166665</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>42660.998576388891</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>42661.00204861111</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>42661.005520833336</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>42661.008993055555</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>42661.012465277781</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>42661.0159375</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>42661.019409722219</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>42661.022881944446</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>42661.026354166665</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>42661.029826388891</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>42661.03329861111</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>42661.036770833336</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>42661.040243055555</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>42661.043715277781</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>42661.0471875</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>42661.050659722219</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>42661.054131944446</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>42661.057604166665</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>42661.061076388891</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>42661.06454861111</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>42661.068020833336</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>42661.071493055555</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>42661.074965277781</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>42661.0784375</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>42661.081909722219</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>42661.085381944446</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>42661.088854166665</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>42661.092326388891</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>42661.09579861111</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>42661.099270833336</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>42661.102743055555</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>42661.106215277781</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>42661.1096875</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>42661.113159722219</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>42661.116631944446</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>42661.120104166665</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>42661.123576388891</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>42661.12704861111</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>42661.130520833336</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>42661.133993055555</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>42661.137465277781</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>42661.1409375</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>42661.144409722219</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>42661.147881944446</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>42661.151354166665</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>42661.154826388891</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>42661.15829861111</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>42661.161770833336</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>42661.165243055555</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>42661.168715277781</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>42661.1721875</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>42661.175659722219</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>42661.179131944446</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>42661.182604166665</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>42661.186076388891</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>42661.18954861111</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>42661.193020833336</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>42661.196493055555</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>42661.199965277781</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>42661.2034375</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>42661.206909722219</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>42661.210381944446</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>42661.213854166665</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>42661.217326388891</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>42661.22079861111</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>42661.224270833336</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>42661.227743055555</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>42661.231215277781</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>42661.2346875</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>42661.238159722219</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>42661.241631944446</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>42661.245104166665</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>42661.248576388891</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>42661.25204861111</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>42661.255520833336</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>42661.258993055555</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>42661.262465277781</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>42661.2659375</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>42661.269409722219</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>42661.272881944446</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>42661.276354166665</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>42661.279826388891</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>42661.28329861111</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>42661.286770833336</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>42661.290243055555</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>42661.293715277781</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>42661.2971875</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>42661.300659722219</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>42661.304131944446</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>42661.307604166665</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>42661.311076388891</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>42661.31454861111</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>42661.318020833336</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>42661.321493055555</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>42661.324965277781</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>42661.3284375</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>42661.331909722219</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>42661.335381944446</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>42661.338854166665</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>42661.342326388891</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>42661.34579861111</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>42661.349270833336</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>42661.352743055555</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>42661.356215277781</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>42661.3596875</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>42661.363159722219</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>42661.366631944446</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>42661.370104166665</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>42661.373576388891</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>42661.37704861111</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>42661.380520833336</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>42661.383993055555</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>42661.387465277781</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>42661.3909375</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>42661.394409722219</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>42661.397881944446</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>42661.401354166665</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>42661.404826388891</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>42661.40829861111</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>42661.411770833336</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>42661.415243055555</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>42661.418715277781</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>42661.4221875</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>42661.425659722219</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>42661.429131944446</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>42661.432604166665</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>42661.436076388891</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>42661.43954861111</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>42661.443020833336</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>42661.446493055555</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>42661.449965277781</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>42661.4534375</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>42661.456909722219</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>42661.460381944446</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>42661.463854166665</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>42661.467326388891</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>42661.47079861111</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>42661.474270833336</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>42661.477743055555</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>42661.481215277781</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>42661.4846875</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>42661.488159722219</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>42661.491631944446</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>42661.495104166665</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>42661.498576388891</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>42661.50204861111</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>42661.505520833336</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>42661.508993055555</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>42661.512465277781</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>42661.5159375</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>42661.519409722219</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>42661.522881944446</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>42661.526354166665</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>42661.529826388891</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>42661.53329861111</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>42661.536770833336</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>42661.540243055555</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>42661.543715277781</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>42661.5471875</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>42661.550659722219</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>42661.554131944446</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>42661.557604166665</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>42661.561076388891</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>42661.56454861111</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>42661.568020833336</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>42661.571493055555</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>42661.574965277781</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>42661.5784375</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>42661.581909722219</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>42661.585381944446</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>42661.588854166665</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>42661.592326388891</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>42661.59579861111</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>42661.599270833336</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>42661.602743055555</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>42661.606215277781</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>42661.6096875</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>42661.613159722219</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>42661.616631944446</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>42661.620104166665</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>42661.623576388891</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>42661.62704861111</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>42661.630520833336</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>42661.633993055555</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>42661.637465277781</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>42661.6409375</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>42661.644409722219</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>42661.647881944446</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>42661.651354166665</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>42661.654826388891</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>42661.65829861111</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>42661.661770833336</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>42661.665243055555</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>42661.668715277781</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>42661.6721875</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>42661.675659722219</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>42661.679131944446</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>42661.682604166665</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>42661.686076388891</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>42661.68954861111</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>42661.693020833336</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>42661.696493055555</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>42661.699965277781</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>42661.7034375</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>42661.706909722219</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>42661.710381944446</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>42661.713854166665</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>42661.717326388891</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>42661.72079861111</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>42661.724270833336</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>42661.727743055555</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>42661.731215277781</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>42661.7346875</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>42661.738159722219</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>42661.741631944446</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>42661.745104166665</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>42661.748576388891</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>42661.75204861111</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>42661.755520833336</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>42661.758993055555</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>42661.762465277781</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>42661.7659375</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>42661.769409722219</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>42661.772881944446</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>42661.776354166665</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>42661.779826388891</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>42661.78329861111</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>42661.786770833336</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>42661.790243055555</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>42661.793715277781</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>42661.7971875</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>42661.800659722219</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>42661.804131944446</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>42661.807604166665</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>42661.811076388891</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>42661.81454861111</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>42661.818020833336</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>42661.821493055555</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>42661.824965277781</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>42661.8284375</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>42661.831909722219</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>42661.835381944446</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>42661.838854166665</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>42661.842326388891</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>42661.84579861111</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>42661.849270833336</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>42661.852743055555</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>42661.856215277781</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>42661.8596875</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>42661.863159722219</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>42661.866631944446</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>42661.870104166665</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>42661.873576388891</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>42661.87704861111</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>42661.880520833336</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>42661.883993055555</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>42661.887465277781</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>42661.8909375</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>42661.894409722219</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>42661.897881944446</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>42661.901354166665</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>42661.904826388891</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>42661.90829861111</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>42661.911770833336</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>42661.915243055555</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>42661.918715277781</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>42661.9221875</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>42661.925659722219</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>42661.929131944446</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>42661.932604166665</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>42661.936076388891</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>42661.93954861111</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>42661.943020833336</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>42661.946493055555</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>42661.949965277781</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>42661.9534375</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>42661.956909722219</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>42661.960381944446</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>42661.963854166665</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>42661.967326388891</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>42661.97079861111</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>42661.974270833336</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>42661.977743055555</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>42661.981215277781</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>42661.9846875</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>42661.988159722219</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>42661.991631944446</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>42661.995104166665</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>42661.998576388891</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>42662.00204861111</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>42662.005520833336</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>42662.008993055555</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>42662.012465277781</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>42662.0159375</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>42662.019409722219</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>42662.022881944446</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>42662.026354166665</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>42662.029826388891</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>42662.03329861111</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>42662.036770833336</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>42662.040243055555</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>42662.043715277781</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>42662.0471875</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>42662.050659722219</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>42662.054131944446</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>42662.057604166665</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>42662.061076388891</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>42662.06454861111</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>42662.068020833336</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>42662.071493055555</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>42662.074965277781</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>42662.0784375</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>42662.081909722219</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>42662.085381944446</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>42662.088854166665</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>42662.092326388891</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>42662.09579861111</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>42662.099270833336</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>42662.102743055555</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>42662.106215277781</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>42662.1096875</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>42662.113159722219</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>42662.116631944446</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>42662.120104166665</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>42662.123576388891</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>42662.12704861111</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>42662.130520833336</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>42662.133993055555</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>42662.137465277781</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>42662.1409375</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>42662.144409722219</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>42662.147881944446</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>42662.151354166665</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>42662.154826388891</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>42662.15829861111</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>42662.161770833336</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>42662.165243055555</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>42662.168715277781</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>42662.1721875</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>42662.175659722219</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>42662.179131944446</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>42662.182604166665</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>42662.186076388891</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>42662.18954861111</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>42662.193020833336</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>42662.196493055555</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>42662.199965277781</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>42662.2034375</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>42662.206909722219</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>42662.210381944446</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>42662.213854166665</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>42662.217326388891</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>42662.22079861111</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>42662.224270833336</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>42662.227743055555</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>42662.231215277781</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>42662.2346875</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>42662.238159722219</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>42662.241631944446</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>42662.245104166665</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>42662.248576388891</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>42662.25204861111</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>42662.255520833336</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>42662.258993055555</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>42662.262465277781</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>42662.2659375</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>42662.269409722219</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>42662.272881944446</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>42662.276354166665</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>42662.279826388891</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>42662.28329861111</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>42662.286770833336</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>42662.290243055555</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>42662.293715277781</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>42662.2971875</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>42662.300659722219</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>42662.304131944446</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>42662.307604166665</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>42662.311076388891</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>42662.31454861111</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>42662.318020833336</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>42662.321493055555</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>42662.324965277781</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>42662.3284375</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>42662.331909722219</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>42662.335381944446</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>42662.338854166665</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>42662.342326388891</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>42662.34579861111</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>42662.349270833336</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>42662.352743055555</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>42662.356215277781</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>42662.3596875</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>42662.363159722219</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>42662.366631944446</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>42662.370104166665</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>42662.373576388891</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>42662.37704861111</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>42662.380520833336</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>42662.383993055555</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>42662.387465277781</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>42662.3909375</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>42662.394409722219</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>42662.397881944446</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>42662.401354166665</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>42662.404826388891</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>42662.40829861111</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>42662.411770833336</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>42662.415243055555</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>42662.418715277781</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>42662.4221875</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>42662.425659722219</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>42662.429131944446</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>42662.432604166665</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>42662.436076388891</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>42662.43954861111</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>42662.443020833336</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>42662.446493055555</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>42662.449965277781</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>42662.4534375</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>42662.456909722219</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>42662.460381944446</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>42662.463854166665</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>42662.467326388891</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>42662.47079861111</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>42662.474270833336</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>42662.477743055555</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>42662.481215277781</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>42662.4846875</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>42662.488159722219</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>42662.491631944446</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>42662.495104166665</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>42662.498576388891</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>42662.50204861111</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>42662.505520833336</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>42662.508993055555</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>42662.512465277781</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>42662.5159375</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>42662.519409722219</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>42662.522881944446</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>42662.526354166665</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>42662.529826388891</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>42662.53329861111</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>42662.536770833336</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>42662.540243055555</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>42662.543715277781</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>42662.5471875</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>42662.550659722219</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>42662.554131944446</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>42662.557604166665</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>42662.561076388891</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>42662.56454861111</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>42662.568020833336</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>42662.571493055555</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>42662.574965277781</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>42662.5784375</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>42662.581909722219</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>42662.585381944446</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>42662.588854166665</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>42662.592326388891</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>42662.59579861111</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>42662.599270833336</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>42662.602743055555</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>42662.606215277781</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>42662.6096875</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>42662.613159722219</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>42662.616631944446</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>42662.620104166665</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>42662.623576388891</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>42662.62704861111</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>42662.630520833336</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>42662.633993055555</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>42662.637465277781</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>42662.6409375</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>42662.644409722219</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>42662.647881944446</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>42662.651354166665</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>42662.654826388891</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>42662.65829861111</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>42662.661770833336</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>42662.665243055555</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>42662.668715277781</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>42662.6721875</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>42662.675659722219</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>42662.679131944446</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>42662.682604166665</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>42662.686076388891</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>42662.68954861111</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>42662.693020833336</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>42662.696493055555</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>42662.699965277781</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>42662.7034375</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>42662.706909722219</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>42662.710381944446</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>42662.713854166665</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>42662.717326388891</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>42662.72079861111</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>42662.724270833336</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>42662.727743055555</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>42662.731215277781</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>42662.7346875</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>42662.738159722219</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>42662.741631944446</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>42662.745104166665</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>42662.748576388891</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>42662.75204861111</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>42662.755520833336</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>42662.758993055555</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>42662.762465277781</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>42662.7659375</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>42662.769409722219</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>42662.772881944446</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>42662.776354166665</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>42662.779826388891</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>42662.78329861111</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>42662.786770833336</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>42662.790243055555</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>42662.793715277781</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>42662.7971875</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>42662.800659722219</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>42662.804131944446</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>42662.807604166665</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>42662.811076388891</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>42662.81454861111</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>42662.818020833336</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>42662.821493055555</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>42662.824965277781</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>42662.8284375</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>42662.831909722219</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>42662.835381944446</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>42662.838854166665</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>42662.842326388891</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>42662.84579861111</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>42662.849270833336</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>42662.852743055555</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>42662.856215277781</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>42662.8596875</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>42662.863159722219</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>42662.866631944446</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>42662.870104166665</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>42662.873576388891</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>42662.87704861111</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>42662.880520833336</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>42662.883993055555</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>42662.887465277781</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>42662.8909375</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>42662.894409722219</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>42662.897881944446</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>42662.901354166665</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>42662.904826388891</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>42662.90829861111</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>42662.911770833336</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>42662.915243055555</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>42662.918715277781</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>42662.9221875</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>42662.925659722219</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>42662.929131944446</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>42662.932604166665</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>42662.936076388891</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>42662.93954861111</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>42662.943020833336</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>42662.946493055555</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>42662.949965277781</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>42662.9534375</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>42662.956909722219</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>42662.960381944446</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>42662.963854166665</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>42662.967326388891</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>42662.97079861111</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>42662.974270833336</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>42662.977743055555</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>42662.981215277781</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>42662.9846875</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>42662.988159722219</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>42662.991631944446</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>42662.995104166665</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>42662.998576388891</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>42663.00204861111</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>42663.005520833336</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>42663.008993055555</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>42663.012465277781</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>42663.0159375</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>42663.019409722219</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>42663.022881944446</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>42663.026354166665</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>42663.029826388891</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>42663.03329861111</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>42663.036770833336</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>42663.040243055555</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>42663.043715277781</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>42663.0471875</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>42663.050659722219</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>42663.054131944446</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>42663.057604166665</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>42663.061076388891</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>42663.06454861111</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>42663.068020833336</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>42663.071493055555</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>42663.074965277781</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>42663.0784375</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>42663.081909722219</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>42663.085381944446</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>42663.088854166665</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>42663.092326388891</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>42663.09579861111</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>42663.099270833336</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>42663.102743055555</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>42663.106215277781</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>42663.1096875</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>42663.113159722219</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>42663.116631944446</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>42663.120104166665</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>42663.123576388891</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>42663.12704861111</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>42663.130520833336</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>42663.133993055555</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>42663.137465277781</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>42663.1409375</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>42663.144409722219</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>42663.147881944446</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>PreDeltaX_WaterLevel_Atchafalay!$H$2:$H$965</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="964"/>
+                <c:pt idx="0">
+                  <c:v>0.63900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.72899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.74299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.75600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.78300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.79200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.80800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.81399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.82599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.86699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.872</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.88300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.89300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.91100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.90800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.90500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.89100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.88100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.86899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.86499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.85399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.85099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.84599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.83399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.83099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.82899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.82599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.82099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.81499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.81100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.80800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.79300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.79100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.78900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.78700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.78400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.76700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.77100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.77200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.77500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.77700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.77700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.77900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.77900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.77900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.78200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.78300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.78700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.78900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.79100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.79200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.79700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.79800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.80100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.80600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.80800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.81499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.81699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.82</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.82399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.82599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.82699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.82899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>0.82899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.83099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.83299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.83399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.83299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.83299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.83099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.83</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.82699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.82599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.82299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.82199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.81899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>0.81699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>0.81499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>0.80900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>0.80700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>0.80200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>0.79900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.79600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>0.79200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>0.78900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>0.77700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>0.76200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>0.754</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>0.746</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>0.74099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>0.73699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>0.72399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>0.70499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.69599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>0.66300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>0.63700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>0.63300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>0.627</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>0.624</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>0.62</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>0.61799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>0.61499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>0.59799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>0.59499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>0.59099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>0.58799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>0.58699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>0.58299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.58299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>0.58299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>0.57899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>0.58299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>0.58399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>0.58599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>0.58699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>0.59099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>0.59399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>0.59699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>0.60299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>0.60599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>0.61299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>0.61599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>0.621</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>0.63400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>0.65200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>0.68600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>0.70899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>0.71799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>0.72599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>0.73299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>0.74099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>0.75700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>0.81100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>0.82599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>0.83399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>0.85899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>0.86699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>0.88300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>0.88900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>1.002</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>1.006</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>1.0109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>1.014</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>1.0169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>1.022</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>1.028</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>1.0309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>1.032</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>1.0329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>1.0349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>1.0349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>1.0349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>1.036</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>1.036</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>1.036</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>1.0349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>1.034</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>1.0329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>1.0309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="363">
+                  <c:v>1.0289999999999999</c:v>
+                </c:pt>
+                <c:pt idx="364">
+                  <c:v>1.0269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="365">
+                  <c:v>1.0249999999999999</c:v>
+                </c:pt>
+                <c:pt idx="366">
+                  <c:v>1.0229999999999999</c:v>
+                </c:pt>
+                <c:pt idx="367">
+                  <c:v>1.0189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="368">
+                  <c:v>1.016</c:v>
+                </c:pt>
+                <c:pt idx="369">
+                  <c:v>1.014</c:v>
+                </c:pt>
+                <c:pt idx="370">
+                  <c:v>1.0109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="371">
+                  <c:v>1.008</c:v>
+                </c:pt>
+                <c:pt idx="372">
+                  <c:v>1.006</c:v>
+                </c:pt>
+                <c:pt idx="373">
+                  <c:v>1.0029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="374">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="375">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="376">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="377">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="378">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="379">
+                  <c:v>0.98099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="380">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="381">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="382">
+                  <c:v>0.97099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="383">
+                  <c:v>0.96699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="384">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="385">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="386">
+                  <c:v>0.95499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="387">
+                  <c:v>0.95199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="388">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="389">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="390">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="391">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="392">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="393">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="394">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="395">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="396">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="397">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="398">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="399">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="400">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="401">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="402">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="403">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="404">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="405">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="406">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="407">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="408">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="409">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="410">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="411">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="412">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="413">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="414">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="415">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="416">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="417">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="418">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="419">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="420">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="421">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="422">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="423">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="424">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="425">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="426">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="427">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="428">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="429">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="430">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="431">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="432">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="433">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="434">
+                  <c:v>0.92900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="435">
+                  <c:v>0.93100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="436">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="437">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="438">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="439">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="440">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="441">
+                  <c:v>0.94099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="442">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="443">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="444">
+                  <c:v>0.94499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="445">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="446">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="447">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="448">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="449">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="450">
+                  <c:v>0.95699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="451">
+                  <c:v>0.95899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="452">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="453">
+                  <c:v>0.96099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="454">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="455">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="456">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="457">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="458">
+                  <c:v>0.97099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="459">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="460">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="461">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="462">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="463">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="464">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="465">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="466">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="467">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="468">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="469">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="470">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="471">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="472">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="473">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="474">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="475">
+                  <c:v>0.97599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="476">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="477">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="478">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="479">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="480">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="481">
+                  <c:v>0.96699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="482">
+                  <c:v>0.96399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="483">
+                  <c:v>0.96199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="484">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="485">
+                  <c:v>0.95599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="486">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="487">
+                  <c:v>0.95099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="488">
+                  <c:v>0.94899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="489">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="490">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="491">
+                  <c:v>0.94099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="492">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="493">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="494">
+                  <c:v>0.93300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="495">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="496">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="497">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="498">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="499">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="500">
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="501">
+                  <c:v>0.90400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="502">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="503">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="504">
+                  <c:v>0.89300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="505">
+                  <c:v>0.88900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="506">
+                  <c:v>0.88400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="507">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="508">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="509">
+                  <c:v>0.871</c:v>
+                </c:pt>
+                <c:pt idx="510">
+                  <c:v>0.86599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="511">
+                  <c:v>0.86199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="512">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="513">
+                  <c:v>0.85299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="514">
+                  <c:v>0.84699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="515">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="516">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="517">
+                  <c:v>0.83299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="518">
+                  <c:v>0.82799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="519">
+                  <c:v>0.82399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="520">
+                  <c:v>0.81899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="521">
+                  <c:v>0.81599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="522">
+                  <c:v>0.81299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="523">
+                  <c:v>0.80900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="524">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="525">
+                  <c:v>0.79900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="526">
+                  <c:v>0.79400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="527">
+                  <c:v>0.78900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="528">
+                  <c:v>0.78300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="529">
+                  <c:v>0.77800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="530">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="531">
+                  <c:v>0.76800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="532">
+                  <c:v>0.76200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="533">
+                  <c:v>0.75700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="534">
+                  <c:v>0.753</c:v>
+                </c:pt>
+                <c:pt idx="535">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="536">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="537">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="538">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="539">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="540">
+                  <c:v>0.72699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="541">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="542">
+                  <c:v>0.71699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="543">
+                  <c:v>0.71199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="544">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="545">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="546">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="547">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="548">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="549">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="550">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="551">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="552">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="553">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="554">
+                  <c:v>0.67600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="555">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="556">
+                  <c:v>0.66900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="557">
+                  <c:v>0.66600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="558">
+                  <c:v>0.66400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="559">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="560">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="561">
+                  <c:v>0.65700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="562">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="563">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="564">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="565">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="566">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="567">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="568">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="569">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="570">
+                  <c:v>0.64400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="571">
+                  <c:v>0.64500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="572">
+                  <c:v>0.64600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="573">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="574">
+                  <c:v>0.64700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="575">
+                  <c:v>0.64800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="576">
+                  <c:v>0.64900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="577">
+                  <c:v>0.65100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="578">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="579">
+                  <c:v>0.65400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="580">
+                  <c:v>0.65500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="581">
+                  <c:v>0.65600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="582">
+                  <c:v>0.65800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="583">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="584">
+                  <c:v>0.66100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="585">
+                  <c:v>0.66500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="586">
+                  <c:v>0.66700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="587">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="588">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="589">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="590">
+                  <c:v>0.68400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="591">
+                  <c:v>0.68700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="592">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="593">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="594">
+                  <c:v>0.70299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="595">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="596">
+                  <c:v>0.71399999999999997</c:v>
+                </c:pt>
+                <c:pt idx="597">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="598">
+                  <c:v>0.72599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="599">
+                  <c:v>0.73199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="600">
+                  <c:v>0.73799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="601">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="602">
+                  <c:v>0.751</c:v>
+                </c:pt>
+                <c:pt idx="603">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="604">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="605">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="606">
+                  <c:v>0.78100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="607">
+                  <c:v>0.78800000000000003</c:v>
+                </c:pt>
+                <c:pt idx="608">
+                  <c:v>0.79500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="609">
+                  <c:v>0.80300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="610">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="611">
+                  <c:v>0.81799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="612">
+                  <c:v>0.82599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="613">
+                  <c:v>0.83399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="614">
+                  <c:v>0.84199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="615">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="616">
+                  <c:v>0.86099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="617">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="618">
+                  <c:v>0.878</c:v>
+                </c:pt>
+                <c:pt idx="619">
+                  <c:v>0.88700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="620">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="621">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="622">
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="623">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="624">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="625">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="626">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="627">
+                  <c:v>0.93799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="628">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="629">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="630">
+                  <c:v>0.95499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="631">
+                  <c:v>0.96099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="632">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="633">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="634">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="635">
+                  <c:v>0.97799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="636">
+                  <c:v>0.98099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="637">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="638">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="639">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="640">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="641">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="642">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="643">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="644">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="645">
+                  <c:v>1.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="646">
+                  <c:v>1.002</c:v>
+                </c:pt>
+                <c:pt idx="647">
+                  <c:v>1.0029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="648">
+                  <c:v>1.0029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="649">
+                  <c:v>1.004</c:v>
+                </c:pt>
+                <c:pt idx="650">
+                  <c:v>1.004</c:v>
+                </c:pt>
+                <c:pt idx="651">
+                  <c:v>1.004</c:v>
+                </c:pt>
+                <c:pt idx="652">
+                  <c:v>1.0029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="653">
+                  <c:v>1.0029999999999999</c:v>
+                </c:pt>
+                <c:pt idx="654">
+                  <c:v>1.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="655">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="656">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="657">
+                  <c:v>0.996</c:v>
+                </c:pt>
+                <c:pt idx="658">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="659">
+                  <c:v>0.99199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="660">
+                  <c:v>0.99099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="661">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="662">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="663">
+                  <c:v>0.98699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="664">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="665">
+                  <c:v>0.98399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="666">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="667">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="668">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="669">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="670">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="671">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="672">
+                  <c:v>0.96699999999999997</c:v>
+                </c:pt>
+                <c:pt idx="673">
+                  <c:v>0.96299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="674">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="675">
+                  <c:v>0.95699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="676">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="677">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="678">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="679">
+                  <c:v>0.94599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="680">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="681">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="682">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="683">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="684">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="685">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="686">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="687">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="688">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="689">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="690">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="691">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="692">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="693">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="694">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="695">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="696">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="697">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="698">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="699">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="700">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="701">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="702">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="703">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="704">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="705">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="706">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="707">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="708">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="709">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="710">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="711">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="712">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="713">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="714">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="715">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="716">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="717">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="718">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="719">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="720">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="721">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="722">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="723">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="724">
+                  <c:v>0.91900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="725">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="726">
+                  <c:v>0.92100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="727">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="728">
+                  <c:v>0.92300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="729">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="730">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="731">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="732">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="733">
+                  <c:v>0.92500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="734">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="735">
+                  <c:v>0.92700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="736">
+                  <c:v>0.92900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="737">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="738">
+                  <c:v>0.93100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="739">
+                  <c:v>0.93200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="740">
+                  <c:v>0.93300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="741">
+                  <c:v>0.93400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="742">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="743">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="744">
+                  <c:v>0.93600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="745">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="746">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="747">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="748">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="749">
+                  <c:v>0.94099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="750">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="751">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="752">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="753">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="754">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="755">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="756">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="757">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="758">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="759">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="760">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="761">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="762">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="763">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="764">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="765">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="766">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="767">
+                  <c:v>0.94299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="768">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="769">
+                  <c:v>0.94099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="770">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="771">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="772">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="773">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="774">
+                  <c:v>0.93700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="775">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="776">
+                  <c:v>0.93300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="777">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="778">
+                  <c:v>0.92800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="779">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="780">
+                  <c:v>0.92400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="781">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="782">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="783">
+                  <c:v>0.91800000000000004</c:v>
+                </c:pt>
+                <c:pt idx="784">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="785">
+                  <c:v>0.91300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="786">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="787">
+                  <c:v>0.90600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="788">
+                  <c:v>0.90300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="789">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="790">
+                  <c:v>0.89600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="791">
+                  <c:v>0.89200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="792">
+                  <c:v>0.88900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="793">
+                  <c:v>0.88600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="794">
+                  <c:v>0.88300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="795">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="796">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="797">
+                  <c:v>0.875</c:v>
+                </c:pt>
+                <c:pt idx="798">
+                  <c:v>0.871</c:v>
+                </c:pt>
+                <c:pt idx="799">
+                  <c:v>0.86799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="800">
+                  <c:v>0.86299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="801">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="802">
+                  <c:v>0.85499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="803">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="804">
+                  <c:v>0.84899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="805">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="806">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="807">
+                  <c:v>0.83599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="808">
+                  <c:v>0.83099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="809">
+                  <c:v>0.82699999999999996</c:v>
+                </c:pt>
+                <c:pt idx="810">
+                  <c:v>0.82099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="811">
+                  <c:v>0.81699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="812">
+                  <c:v>0.81200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="813">
+                  <c:v>0.80800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="814">
+                  <c:v>0.80400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="815">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="816">
+                  <c:v>0.79700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="817">
+                  <c:v>0.79300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="818">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="819">
+                  <c:v>0.78700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="820">
+                  <c:v>0.78300000000000003</c:v>
+                </c:pt>
+                <c:pt idx="821">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="822">
+                  <c:v>0.77600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="823">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="824">
+                  <c:v>0.77</c:v>
+                </c:pt>
+                <c:pt idx="825">
+                  <c:v>0.76600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="826">
+                  <c:v>0.76200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="827">
+                  <c:v>0.75800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="828">
+                  <c:v>0.754</c:v>
+                </c:pt>
+                <c:pt idx="829">
+                  <c:v>0.748</c:v>
+                </c:pt>
+                <c:pt idx="830">
+                  <c:v>0.74299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="831">
+                  <c:v>0.73899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="832">
+                  <c:v>0.73399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="833">
+                  <c:v>0.73099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="834">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="835">
+                  <c:v>0.72499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="836">
+                  <c:v>0.72199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="837">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="838">
+                  <c:v>0.71599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="839">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="840">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="841">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="842">
+                  <c:v>0.70199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="843">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="844">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="845">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="846">
+                  <c:v>0.69199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="847">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="848">
+                  <c:v>0.68700000000000006</c:v>
+                </c:pt>
+                <c:pt idx="849">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="850">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="851">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="852">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="853">
+                  <c:v>0.67900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="854">
+                  <c:v>0.67700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="855">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="856">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="857">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="858">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="859">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="860">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="861">
+                  <c:v>0.67100000000000004</c:v>
+                </c:pt>
+                <c:pt idx="862">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="863">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="864">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="865">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="866">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="867">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="868">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="869">
+                  <c:v>0.67200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="870">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="871">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="872">
+                  <c:v>0.67400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="873">
+                  <c:v>0.67500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="874">
+                  <c:v>0.67600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="875">
+                  <c:v>0.67700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="876">
+                  <c:v>0.67800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="877">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="878">
+                  <c:v>0.68100000000000005</c:v>
+                </c:pt>
+                <c:pt idx="879">
+                  <c:v>0.68300000000000005</c:v>
+                </c:pt>
+                <c:pt idx="880">
+                  <c:v>0.68600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="881">
+                  <c:v>0.68799999999999994</c:v>
+                </c:pt>
+                <c:pt idx="882">
+                  <c:v>0.69099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="883">
+                  <c:v>0.69399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="884">
+                  <c:v>0.69699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="885">
+                  <c:v>0.70099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="886">
+                  <c:v>0.70399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="887">
+                  <c:v>0.70799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="888">
+                  <c:v>0.71099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="889">
+                  <c:v>0.71499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="890">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="891">
+                  <c:v>0.72599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="892">
+                  <c:v>0.73099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="893">
+                  <c:v>0.73499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="894">
+                  <c:v>0.74</c:v>
+                </c:pt>
+                <c:pt idx="895">
+                  <c:v>0.745</c:v>
+                </c:pt>
+                <c:pt idx="896">
+                  <c:v>0.749</c:v>
+                </c:pt>
+                <c:pt idx="897">
+                  <c:v>0.754</c:v>
+                </c:pt>
+                <c:pt idx="898">
+                  <c:v>0.75700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="899">
+                  <c:v>0.76100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="900">
+                  <c:v>0.76700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="901">
+                  <c:v>0.77300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="902">
+                  <c:v>0.77900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="903">
+                  <c:v>0.78500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="904">
+                  <c:v>0.79200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="905">
+                  <c:v>0.79900000000000004</c:v>
+                </c:pt>
+                <c:pt idx="906">
+                  <c:v>0.80700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="907">
+                  <c:v>0.81299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="908">
+                  <c:v>0.81899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="909">
+                  <c:v>0.82499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="910">
+                  <c:v>0.83199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="911">
+                  <c:v>0.83799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="912">
+                  <c:v>0.84499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="913">
+                  <c:v>0.85199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="914">
+                  <c:v>0.85899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="915">
+                  <c:v>0.86699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="916">
+                  <c:v>0.874</c:v>
+                </c:pt>
+                <c:pt idx="917">
+                  <c:v>0.88100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="918">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="919">
+                  <c:v>0.89500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="920">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="921">
+                  <c:v>0.90900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="922">
+                  <c:v>0.91600000000000004</c:v>
+                </c:pt>
+                <c:pt idx="923">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="924">
+                  <c:v>0.92900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="925">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="926">
+                  <c:v>0.94199999999999995</c:v>
+                </c:pt>
+                <c:pt idx="927">
+                  <c:v>0.94799999999999995</c:v>
+                </c:pt>
+                <c:pt idx="928">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="929">
+                  <c:v>0.96</c:v>
+                </c:pt>
+                <c:pt idx="930">
+                  <c:v>0.96599999999999997</c:v>
+                </c:pt>
+                <c:pt idx="931">
+                  <c:v>0.97199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="932">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="933">
+                  <c:v>0.98199999999999998</c:v>
+                </c:pt>
+                <c:pt idx="934">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="935">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="936">
+                  <c:v>0.999</c:v>
+                </c:pt>
+                <c:pt idx="937">
+                  <c:v>1.004</c:v>
+                </c:pt>
+                <c:pt idx="938">
+                  <c:v>1.0089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="939">
+                  <c:v>1.014</c:v>
+                </c:pt>
+                <c:pt idx="940">
+                  <c:v>1.0189999999999999</c:v>
+                </c:pt>
+                <c:pt idx="941">
+                  <c:v>1.022</c:v>
+                </c:pt>
+                <c:pt idx="942">
+                  <c:v>1.0269999999999999</c:v>
+                </c:pt>
+                <c:pt idx="943">
+                  <c:v>1.0309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="944">
+                  <c:v>1.034</c:v>
+                </c:pt>
+                <c:pt idx="945">
+                  <c:v>1.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="946">
+                  <c:v>1.0389999999999999</c:v>
+                </c:pt>
+                <c:pt idx="947">
+                  <c:v>1.0409999999999999</c:v>
+                </c:pt>
+                <c:pt idx="948">
+                  <c:v>1.042</c:v>
+                </c:pt>
+                <c:pt idx="949">
+                  <c:v>1.044</c:v>
+                </c:pt>
+                <c:pt idx="950">
+                  <c:v>1.0449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="951">
+                  <c:v>1.046</c:v>
+                </c:pt>
+                <c:pt idx="952">
+                  <c:v>1.0469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="953">
+                  <c:v>1.048</c:v>
+                </c:pt>
+                <c:pt idx="954">
+                  <c:v>1.0489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="955">
+                  <c:v>1.0489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="956">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="957">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="958">
+                  <c:v>1.0489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="959">
+                  <c:v>1.0489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="960">
+                  <c:v>1.048</c:v>
+                </c:pt>
+                <c:pt idx="961">
+                  <c:v>1.048</c:v>
+                </c:pt>
+                <c:pt idx="962">
+                  <c:v>1.0469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="963">
+                  <c:v>1.048</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0FD4-416D-8D39-D8640A4D20B9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="455447632"/>
+        <c:axId val="455442384"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="455447632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy\ h:mm" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455442384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="455442384"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455447632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -687,7 +6719,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -698,7 +6730,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -721,7 +6753,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -744,7 +6776,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -752,11 +6784,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -781,14 +6813,14 @@
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
       <a:spAutoFit/>
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -803,7 +6835,7 @@
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -820,7 +6852,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -835,8 +6867,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -849,7 +6883,7 @@
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
@@ -859,13 +6893,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="9525" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -884,16 +6918,18 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -964,6 +7000,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -995,8 +7037,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1051,7 +7093,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
   <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -1079,18 +7121,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
     <cs:lnRef idx="0"/>
@@ -1100,9 +7131,12 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -1118,7 +7152,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -1134,7 +7168,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -1148,7 +7182,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
   <cs:upBar>
     <cs:lnRef idx="0"/>
@@ -1181,7 +7215,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -1190,6 +7224,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -1199,79 +7239,37 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>608134</xdr:colOff>
-      <xdr:row>951</xdr:row>
-      <xdr:rowOff>145073</xdr:rowOff>
+      <xdr:colOff>559287</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>32726</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1721827</xdr:colOff>
-      <xdr:row>966</xdr:row>
-      <xdr:rowOff>104042</xdr:rowOff>
+      <xdr:colOff>1672980</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97693</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
-        <xdr:graphicFrame macro="">
-          <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Chart 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF917CD4-C21B-452D-A884-9F8027A9DE7D}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
-          </xdr:nvGraphicFramePr>
-          <xdr:xfrm>
-            <a:off x="0" y="0"/>
-            <a:ext cx="0" cy="0"/>
-          </xdr:xfrm>
-          <a:graphic>
-            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-            </a:graphicData>
-          </a:graphic>
-        </xdr:graphicFrame>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="5248519" y="176665304"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A00060BD-1671-45CC-B2B9-F14CB492F485}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1573,11 +7571,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I965"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F952" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H965"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
